--- a/machine-learning/datos-IVA.xlsx
+++ b/machine-learning/datos-IVA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ocorcho/Nextcloud/Proyectos/2021-InstitutoEstudiosFiscales/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ocorcho/Nextcloud/Proyectos/2021-InstitutoEstudiosFiscales/work/ontology-github/machine-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA37D3-66CC-0A4B-89E1-F456AE3F4203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AAC07-580F-494B-AEAA-5D4D94B8CBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="1020" windowWidth="30680" windowHeight="17900" xr2:uid="{62674EA8-6986-C34E-8E1A-E929C7059182}"/>
   </bookViews>
@@ -220,8 +220,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,9 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4295B3FA-AA19-0F49-808B-9D3DFCCC73F8}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,43 +591,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
@@ -1517,5 +1526,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>